--- a/開発記録.xlsx
+++ b/開発記録.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7140" windowHeight="6090"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7140" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,19 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>意味チャット開発記録</t>
-    <rPh sb="0" eb="2">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,6 +91,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMER開発記録</t>
+    <rPh sb="4" eb="6">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -489,16 +486,16 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,7 +503,7 @@
         <v>0.01</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -514,7 +511,7 @@
         <v>0.02</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,7 +519,7 @@
         <v>0.03</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -530,7 +527,12 @@
         <v>0.04</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/開発記録.xlsx
+++ b/開発記録.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="7140" windowHeight="6090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7140" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>バージョン</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,19 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web版にWebサーバー機能を追加</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -476,7 +489,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -534,6 +547,9 @@
       <c r="A7">
         <v>0.05</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:B2"/>
